--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_bg_color_changed.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_bg_color_changed.xlsx
@@ -11770,13 +11770,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E584282C-F93B-4E01-88EA-50165B4E0A6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B60056-7856-42FB-AB56-644FC1700BBC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF566D-78F7-4B05-B666-BE754CD9943C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2CB6D2-B251-4015-946E-216968183F4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77A248D-F042-4509-A56F-801AB9C77E66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A91FD7-BF9D-46DB-A28A-11F47EAC438E}"/>
 </file>